--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bizzy\POCs\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guna\POCs\ML\nWave_effort\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -21,54 +21,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
-    <t>Provider
-Message Format</t>
-  </si>
-  <si>
-    <t>Integration 
-Protocol</t>
-  </si>
-  <si>
-    <t>Intermediate 
-Data Format</t>
-  </si>
-  <si>
-    <t>Consumer 
-Message
-Format</t>
-  </si>
-  <si>
-    <t>Consumer
-Integration Protocol</t>
-  </si>
-  <si>
-    <t>Interface type</t>
-  </si>
-  <si>
-    <t>Total Number of Message Fields</t>
-  </si>
-  <si>
-    <t>Number of Rules
-Transformation</t>
-  </si>
-  <si>
-    <t>Number 
-of Operations/Methods/Flows</t>
-  </si>
-  <si>
     <t>Complexity</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>New or Existing</t>
-  </si>
-  <si>
-    <t>Exposed as
-API</t>
-  </si>
-  <si>
     <t>Interface Weightage</t>
   </si>
   <si>
@@ -136,12 +91,48 @@
   </si>
   <si>
     <t>InvokeSOAPoverJMS</t>
+  </si>
+  <si>
+    <t>exposed-as-api</t>
+  </si>
+  <si>
+    <t>srcmsgformat</t>
+  </si>
+  <si>
+    <t>Interface-type</t>
+  </si>
+  <si>
+    <t>srcprotocol</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>targetmsgformat</t>
+  </si>
+  <si>
+    <t>targetprotocol</t>
+  </si>
+  <si>
+    <t>int-dataformat</t>
+  </si>
+  <si>
+    <t>msgfieldcount</t>
+  </si>
+  <si>
+    <t>rulecount</t>
+  </si>
+  <si>
+    <t>operationcount</t>
+  </si>
+  <si>
+    <t>new-existing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -995,56 +986,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1091,7 +1082,7 @@
     </row>
     <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1138,7 +1129,7 @@
     </row>
     <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -1185,7 +1176,7 @@
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1232,7 +1223,7 @@
     </row>
     <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1279,7 +1270,7 @@
     </row>
     <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1326,7 +1317,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1373,7 +1364,7 @@
     </row>
     <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1420,7 +1411,7 @@
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1467,7 +1458,7 @@
     </row>
     <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1514,7 +1505,7 @@
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1561,7 +1552,7 @@
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -1608,7 +1599,7 @@
     </row>
     <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -1655,7 +1646,7 @@
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -1702,7 +1693,7 @@
     </row>
     <row r="16" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -1749,7 +1740,7 @@
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
@@ -1796,7 +1787,7 @@
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1843,7 +1834,7 @@
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -1890,7 +1881,7 @@
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -1937,7 +1928,7 @@
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -1984,7 +1975,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -2031,7 +2022,7 @@
     </row>
     <row r="23" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -2078,7 +2069,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
@@ -2125,7 +2116,7 @@
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -2172,7 +2163,7 @@
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -2219,7 +2210,7 @@
     </row>
     <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -2266,7 +2257,7 @@
     </row>
     <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
@@ -2313,7 +2304,7 @@
     </row>
     <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -2360,7 +2351,7 @@
     </row>
     <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
-  <si>
-    <t>Complexity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Interface Weightage</t>
   </si>
@@ -978,64 +975,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>35</v>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1068,21 +1062,18 @@
         <v>3</v>
       </c>
       <c r="L2" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
       </c>
       <c r="N2" s="4">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4">
         <v>21.9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1112,24 +1103,21 @@
         <v>1</v>
       </c>
       <c r="K3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -1159,24 +1147,21 @@
         <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1206,24 +1191,21 @@
         <v>2</v>
       </c>
       <c r="K5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
         <v>7.2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1253,24 +1235,21 @@
         <v>1</v>
       </c>
       <c r="K6" s="4">
+        <v>7</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="L6" s="4">
-        <v>7</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1300,71 +1279,65 @@
         <v>1</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
-        <v>3</v>
-      </c>
-      <c r="L8" s="4">
-        <v>6</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1394,24 +1367,21 @@
         <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L9" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1444,21 +1414,18 @@
         <v>3</v>
       </c>
       <c r="L10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
         <v>10.9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1488,24 +1455,21 @@
         <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1535,71 +1499,65 @@
         <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>7</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
-        <v>3</v>
-      </c>
-      <c r="L13" s="4">
-        <v>7</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -1629,71 +1587,65 @@
         <v>1</v>
       </c>
       <c r="K14" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L14" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>4</v>
-      </c>
-      <c r="L15" s="4">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -1726,21 +1678,18 @@
         <v>4</v>
       </c>
       <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>15.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
@@ -1773,21 +1722,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
         <v>10.9</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1817,118 +1763,109 @@
         <v>1</v>
       </c>
       <c r="K18" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
         <v>7</v>
       </c>
-      <c r="M18" s="4">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
         <v>15.2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>4</v>
-      </c>
-      <c r="L19" s="4">
-        <v>7</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>6</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
         <v>15.2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4">
-        <v>4</v>
-      </c>
-      <c r="L20" s="4">
-        <v>6</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -1961,68 +1898,62 @@
         <v>4</v>
       </c>
       <c r="L21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
         <v>16.7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4">
-        <v>3</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
-        <v>3</v>
-      </c>
-      <c r="L22" s="4">
-        <v>3</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -2052,24 +1983,21 @@
         <v>1</v>
       </c>
       <c r="K23" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
@@ -2099,24 +2027,21 @@
         <v>1</v>
       </c>
       <c r="K24" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L24" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -2146,24 +2071,21 @@
         <v>1</v>
       </c>
       <c r="K25" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L25" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
         <v>10.9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -2193,24 +2115,21 @@
         <v>1</v>
       </c>
       <c r="K26" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
         <v>6.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -2240,71 +2159,65 @@
         <v>1</v>
       </c>
       <c r="K27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>6</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B28" s="4">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>3</v>
-      </c>
-      <c r="L28" s="4">
-        <v>6</v>
-      </c>
-      <c r="M28" s="4">
-        <v>1</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -2334,24 +2247,21 @@
         <v>1</v>
       </c>
       <c r="K29" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L29" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -2384,15 +2294,12 @@
         <v>4</v>
       </c>
       <c r="L30" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
         <v>15.1</v>
       </c>
     </row>
